--- a/H2_SGE_1T_AitorBarriosGarcia.xlsx
+++ b/H2_SGE_1T_AitorBarriosGarcia.xlsx
@@ -522,7 +522,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>

--- a/H2_SGE_1T_AitorBarriosGarcia.xlsx
+++ b/H2_SGE_1T_AitorBarriosGarcia.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>idcat</t>
   </si>
@@ -26,9 +26,15 @@
     <t>nombre</t>
   </si>
   <si>
+    <t>Pasta</t>
+  </si>
+  <si>
     <t>Arroz</t>
   </si>
   <si>
+    <t>Condones</t>
+  </si>
+  <si>
     <t>idcli</t>
   </si>
   <si>
@@ -44,6 +50,36 @@
     <t>direccion</t>
   </si>
   <si>
+    <t>Eulises</t>
+  </si>
+  <si>
+    <t>Leopoldo</t>
+  </si>
+  <si>
+    <t>Rodríguez</t>
+  </si>
+  <si>
+    <t>Carasuave</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>987654321</t>
+  </si>
+  <si>
+    <t>erod@campus.es</t>
+  </si>
+  <si>
+    <t>lcar@campus.es</t>
+  </si>
+  <si>
+    <t>Calle Falsa 123</t>
+  </si>
+  <si>
+    <t>Fake ST 123</t>
+  </si>
+  <si>
     <t>idpro</t>
   </si>
   <si>
@@ -53,13 +89,13 @@
     <t>precio</t>
   </si>
   <si>
-    <t>Macarrones</t>
+    <t>Rizzone</t>
   </si>
   <si>
     <t>Arroz SOS</t>
   </si>
   <si>
-    <t>Condones</t>
+    <t>Durex Ultrafino</t>
   </si>
   <si>
     <t>idped</t>
@@ -71,7 +107,13 @@
     <t>30/11/2023</t>
   </si>
   <si>
-    <t>29/11/32</t>
+    <t>29/11/2032</t>
+  </si>
+  <si>
+    <t>02/12/2023</t>
+  </si>
+  <si>
+    <t>29/11/2023</t>
   </si>
   <si>
     <t>iddet</t>
@@ -435,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,10 +493,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -464,7 +522,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,22 +530,62 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -505,16 +603,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -525,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -542,7 +640,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -559,13 +657,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -578,7 +676,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -586,16 +684,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -609,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -623,7 +721,35 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -633,7 +759,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -641,16 +767,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -665,6 +791,34 @@
       </c>
       <c r="D2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
